--- a/pocisiones.xlsx
+++ b/pocisiones.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camilo\Desktop\scooterBLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OnedriveUMA\OneDrive - Universidad de Málaga\ble_m365\scooterBLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="patinete" sheetId="1" r:id="rId1"/>
     <sheet name="batería" sheetId="2" r:id="rId2"/>
+    <sheet name="errores" sheetId="3" r:id="rId3"/>
+    <sheet name="advertencias" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="138">
   <si>
     <t>hex</t>
   </si>
@@ -78,18 +80,12 @@
     <t>segundos viaje</t>
   </si>
   <si>
-    <t>metros viaje</t>
-  </si>
-  <si>
     <t>segundos desde que se inicio el viaje actual</t>
   </si>
   <si>
     <t>metros recorridos en el viaje actual, /1000=km</t>
   </si>
   <si>
-    <t>version bms</t>
-  </si>
-  <si>
     <t>0x0071</t>
   </si>
   <si>
@@ -123,9 +119,6 @@
     <t>velocidad</t>
   </si>
   <si>
-    <t>velocidad actual en metros/hora</t>
-  </si>
-  <si>
     <t>velocidad promedio</t>
   </si>
   <si>
@@ -138,9 +131,6 @@
     <t>v[184] * 65536 + v[183] en metros</t>
   </si>
   <si>
-    <t>0x0005</t>
-  </si>
-  <si>
     <t>0x027c</t>
   </si>
   <si>
@@ -201,60 +191,18 @@
     <t>serial de la bateria en ascii</t>
   </si>
   <si>
-    <t>0x1501</t>
-  </si>
-  <si>
     <t>Capacidad batería</t>
   </si>
   <si>
     <t>Capacidad de la batería 7800mAh</t>
   </si>
   <si>
-    <t>0x22a2</t>
-  </si>
-  <si>
-    <t>tiene pinta de ser mAh esto que es</t>
-  </si>
-  <si>
-    <t>y de ser de 6 de longitud esto que es</t>
-  </si>
-  <si>
-    <t>0x1e36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiene pinta de ser los mAh restantes </t>
-  </si>
-  <si>
-    <t>0x0063</t>
-  </si>
-  <si>
-    <t>tiene pinta de ser un porcentaje de batería</t>
-  </si>
-  <si>
     <t>0x0001</t>
   </si>
   <si>
     <t>0x0003</t>
   </si>
   <si>
-    <t>corriente??</t>
-  </si>
-  <si>
-    <t>0x0036</t>
-  </si>
-  <si>
-    <t>watts??</t>
-  </si>
-  <si>
-    <t>0x1009</t>
-  </si>
-  <si>
-    <t>voltaje batería??</t>
-  </si>
-  <si>
-    <t>0x3131</t>
-  </si>
-  <si>
     <t>numero concatenados</t>
   </si>
   <si>
@@ -267,9 +215,6 @@
     <t>veces que se ha recargado</t>
   </si>
   <si>
-    <t>0x0062</t>
-  </si>
-  <si>
     <t>Voltaje pack1</t>
   </si>
   <si>
@@ -301,6 +246,201 @@
   </si>
   <si>
     <t>Voltaje en milivoltios</t>
+  </si>
+  <si>
+    <t>metros</t>
+  </si>
+  <si>
+    <t>metros recorridos en el viaje actual km*10</t>
+  </si>
+  <si>
+    <t>0x0115</t>
+  </si>
+  <si>
+    <t>VersionBMS</t>
+  </si>
+  <si>
+    <t>Fecha fabricacion</t>
+  </si>
+  <si>
+    <t>numeros concatenados</t>
+  </si>
+  <si>
+    <t>7 MSB-&gt;año, siguientes 4bits-&gt;mes, 5 LSB -&gt;dia</t>
+  </si>
+  <si>
+    <t>voltaje en voltios*10</t>
+  </si>
+  <si>
+    <t>Voltaje bateria</t>
+  </si>
+  <si>
+    <t>Porcentaje bateria</t>
+  </si>
+  <si>
+    <t>Porcentaje de batería 0 a 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mAh restantes </t>
+  </si>
+  <si>
+    <t>mAh restantes</t>
+  </si>
+  <si>
+    <t>Corriente</t>
+  </si>
+  <si>
+    <t>corriente en A*100</t>
+  </si>
+  <si>
+    <t>Temp celdas</t>
+  </si>
+  <si>
+    <t>Vida de la batería, 0-100, error si es menor a 60</t>
+  </si>
+  <si>
+    <t>vida de la bateria</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Al escribir 0x0001 aquí el patinete se bloquea</t>
+  </si>
+  <si>
+    <t>Al escribir 0x0001 aquí se desbloquea</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>velocidad actual en metros/hora (puede ser negativa)</t>
+  </si>
+  <si>
+    <t>numero de error. Normal=0</t>
+  </si>
+  <si>
+    <t>errores</t>
+  </si>
+  <si>
+    <t>numero de error</t>
+  </si>
+  <si>
+    <t>mensaje</t>
+  </si>
+  <si>
+    <t>deberia poner check brake…</t>
+  </si>
+  <si>
+    <t>deberia poner check motor…</t>
+  </si>
+  <si>
+    <t>Flash save is error, please check the controller</t>
+  </si>
+  <si>
+    <t>recomendación</t>
+  </si>
+  <si>
+    <t>Dashboard communication is abnormal</t>
+  </si>
+  <si>
+    <t>check dasboard or related cables.</t>
+  </si>
+  <si>
+    <t>Phase A of motor current is abnormal</t>
+  </si>
+  <si>
+    <t>Accelerator hall sensor is abnormal</t>
+  </si>
+  <si>
+    <t>please check accelerator or related cables</t>
+  </si>
+  <si>
+    <t>Phase B of motor current is abnormal</t>
+  </si>
+  <si>
+    <t>Phase C of motor current is abnormal</t>
+  </si>
+  <si>
+    <t>Brake hall sensor is abnormal</t>
+  </si>
+  <si>
+    <t>Motor hall sensor is abnormal</t>
+  </si>
+  <si>
+    <t>BMS communication error</t>
+  </si>
+  <si>
+    <t>please check battery or related cables</t>
+  </si>
+  <si>
+    <t>BMS password is wrong</t>
+  </si>
+  <si>
+    <t>please contact after-sales service</t>
+  </si>
+  <si>
+    <t>BMS serial is abnormal</t>
+  </si>
+  <si>
+    <t>System voltage is abnormal</t>
+  </si>
+  <si>
+    <t>please check the controller</t>
+  </si>
+  <si>
+    <t>Controller password is wrong</t>
+  </si>
+  <si>
+    <t>MOS high bridge is abnormal</t>
+  </si>
+  <si>
+    <t>MOS low bridge is abnormal</t>
+  </si>
+  <si>
+    <t>Program jumping error</t>
+  </si>
+  <si>
+    <t>Serial no of the scooter is wrong</t>
+  </si>
+  <si>
+    <t>Battery temperature sensor is abnormal</t>
+  </si>
+  <si>
+    <t>please make sure the temperature is between -10°C-50°C, or contact after-sales service</t>
+  </si>
+  <si>
+    <t>Controller temperature sensor is abnormal</t>
+  </si>
+  <si>
+    <t>advertencias</t>
+  </si>
+  <si>
+    <t>numero de advertencia Normal=0</t>
+  </si>
+  <si>
+    <t>numero de advertencia</t>
+  </si>
+  <si>
+    <t>Vehicle is in lock mode</t>
+  </si>
+  <si>
+    <t>battery is overcharge, the left hand brake is losing efficacy, please be careful</t>
+  </si>
+  <si>
+    <t>Registro de estado 0x0000=normal, 0x0002 = patinete bloqueado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra: flag 0x01 = limitado, flag 0x04= Vibra el movil </t>
+  </si>
+  <si>
+    <t>Según Gorina esto es el modo de trabajo. ninebot lo omite?</t>
+  </si>
+  <si>
+    <t>Bloqueo on</t>
+  </si>
+  <si>
+    <t>Bloqueo off</t>
   </si>
 </sst>
 </file>
@@ -329,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,13 +484,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,14 +519,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,51 +1127,51 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0x17</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>6</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
+      <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0x18</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
+      <c r="A27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0x19</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
@@ -1036,144 +1195,144 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="str">
+      <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0x1B</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x1C</v>
+      </c>
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="4" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x1D</v>
+      </c>
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x1E</v>
+      </c>
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x1F</v>
+      </c>
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x1C</v>
-      </c>
-      <c r="B30" s="4">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x20</v>
+      </c>
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x1D</v>
-      </c>
-      <c r="B31" s="4">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="D34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0x21</v>
+      </c>
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x1E</v>
-      </c>
-      <c r="B32" s="4">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x1F</v>
-      </c>
-      <c r="B33" s="4">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x20</v>
-      </c>
-      <c r="B34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0x21</v>
-      </c>
-      <c r="B35" s="4">
-        <v>33</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>49</v>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,45 +1564,45 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="str">
+      <c r="A60" s="5" t="str">
         <f t="shared" si="0"/>
         <v>0x3A</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="5">
         <v>58</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="5">
         <v>2</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0x3B</v>
+      </c>
+      <c r="B61" s="6">
+        <v>59</v>
+      </c>
+      <c r="C61" s="6">
+        <v>2</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0x3B</v>
-      </c>
-      <c r="B61" s="3">
-        <v>59</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="F61" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1465,24 +1624,24 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="str">
+      <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0x3E</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>51</v>
+      <c r="F64" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,62 +2005,62 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="str">
+      <c r="A105" s="5" t="str">
         <f t="shared" si="1"/>
         <v>0x67</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="5">
         <v>103</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="5">
         <v>2</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="str">
+      <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0x68</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="3">
         <v>104</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="3">
         <v>2</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4" t="s">
+      <c r="D106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>0x69</v>
+      </c>
+      <c r="B107" s="3">
+        <v>105</v>
+      </c>
+      <c r="C107" s="3">
+        <v>2</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>0x69</v>
-      </c>
-      <c r="B107" s="4">
-        <v>105</v>
-      </c>
-      <c r="C107" s="4">
-        <v>2</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4" t="s">
-        <v>48</v>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -1959,21 +2118,45 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+      <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>0x70</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>112</v>
       </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+      <c r="A115" s="12" t="str">
         <f t="shared" si="1"/>
         <v>0x71</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="12">
         <v>113</v>
+      </c>
+      <c r="C115" s="12">
+        <v>2</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -1986,41 +2169,41 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="str">
+      <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0x73</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>115</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="3">
         <v>2</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4" t="s">
-        <v>55</v>
+      <c r="D117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="str">
+      <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0x74</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>116</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>2</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4" t="s">
-        <v>55</v>
+      <c r="D118" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,34 +2272,34 @@
         <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="str">
+      <c r="A126" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0x7C</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>124</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="2">
         <v>2</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2581,7 +2764,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>0xAF</v>
@@ -2590,91 +2773,94 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="str">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0xB0</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="6">
         <v>176</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="6">
         <v>2</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="str">
+      <c r="D178" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="str">
         <f t="shared" si="2"/>
         <v>0xB1</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="13">
         <v>177</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="13">
         <v>2</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="str">
+      <c r="D179" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0xB2</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="6">
         <v>178</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="6">
         <v>2</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="str">
+      <c r="D180" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="str">
         <f t="shared" si="2"/>
         <v>0xB3</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>179</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="3">
         <v>2</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D181" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0xB4</v>
@@ -2686,37 +2872,37 @@
         <v>2</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="str">
         <f t="shared" si="2"/>
         <v>0xB5</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>181</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="2">
         <v>2</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="D183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>0xB6</v>
@@ -2728,184 +2914,186 @@
         <v>2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0xB7</v>
+      </c>
+      <c r="B185" s="2">
+        <v>183</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0xB8</v>
+      </c>
+      <c r="B186" s="2">
+        <v>184</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>0xB9</v>
+      </c>
+      <c r="B187" s="6">
+        <v>185</v>
+      </c>
+      <c r="C187" s="6">
+        <v>2</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBA</v>
+      </c>
+      <c r="B188" s="5">
+        <v>186</v>
+      </c>
+      <c r="C188" s="5">
+        <v>2</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0xB7</v>
-      </c>
-      <c r="B185" s="3">
-        <v>183</v>
-      </c>
-      <c r="C185" s="3">
-        <v>4</v>
-      </c>
-      <c r="D185" s="3" t="s">
+      <c r="E188" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBB</v>
+      </c>
+      <c r="B189" s="2">
+        <v>187</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBC</v>
+      </c>
+      <c r="B190" s="3">
+        <v>188</v>
+      </c>
+      <c r="C190" s="3">
+        <v>2</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E185" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0xB8</v>
-      </c>
-      <c r="B186" s="3">
-        <v>184</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0xB9</v>
-      </c>
-      <c r="B187" s="4">
-        <v>185</v>
-      </c>
-      <c r="C187" s="4">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBD</v>
+      </c>
+      <c r="B191" s="3">
+        <v>189</v>
+      </c>
+      <c r="C191" s="3">
         <v>2</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBA</v>
-      </c>
-      <c r="B188" s="6">
-        <v>186</v>
-      </c>
-      <c r="C188" s="6">
+      <c r="D191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBE</v>
+      </c>
+      <c r="B192" s="3">
+        <v>190</v>
+      </c>
+      <c r="C192" s="3">
         <v>2</v>
       </c>
-      <c r="D188" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBB</v>
-      </c>
-      <c r="B189" s="3">
-        <v>187</v>
-      </c>
-      <c r="C189" s="3">
+      <c r="D192" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>0xBF</v>
+      </c>
+      <c r="B193" s="3">
+        <v>191</v>
+      </c>
+      <c r="C193" s="3">
         <v>2</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBC</v>
-      </c>
-      <c r="B190" s="4">
-        <v>188</v>
-      </c>
-      <c r="C190" s="4">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBD</v>
-      </c>
-      <c r="B191" s="4">
-        <v>189</v>
-      </c>
-      <c r="C191" s="4">
-        <v>2</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBE</v>
-      </c>
-      <c r="B192" s="4">
-        <v>190</v>
-      </c>
-      <c r="C192" s="4">
-        <v>2</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>0xBF</v>
-      </c>
-      <c r="B193" s="4">
-        <v>191</v>
-      </c>
-      <c r="C193" s="4">
-        <v>2</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4" t="s">
-        <v>39</v>
+      <c r="D193" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -3492,17 +3680,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3681,13 +3869,13 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3769,22 +3957,22 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
+      <c r="A25" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0x17</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="7">
         <v>23</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>39</v>
+      <c r="D25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3799,13 +3987,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3827,41 +4015,41 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="str">
+      <c r="A29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0x1B</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="10">
         <v>27</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="10">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>78</v>
+      <c r="D29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="str">
+      <c r="A30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>0x1C</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="10">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="10">
         <v>2</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
-        <v>79</v>
+      <c r="D30" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,74 +4080,76 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="str">
+      <c r="A34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0x20</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="8">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>62</v>
+      <c r="D34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="str">
+      <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0x21</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>63</v>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="str">
+      <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0x22</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>49</v>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="str">
+      <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0x23</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>35</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
@@ -4060,7 +4250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>0x2F</v>
@@ -4069,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>0x30</v>
@@ -4078,49 +4268,50 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="str">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>0x31</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="11">
         <v>49</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="11">
         <v>2</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
+      <c r="F51" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0x32</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0x33</v>
@@ -4132,37 +4323,37 @@
         <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="str">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0x34</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0x35</v>
@@ -4174,37 +4365,25 @@
         <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="str">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>0x36</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="9">
         <v>54</v>
       </c>
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>0x37</v>
@@ -4213,7 +4392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>0x38</v>
@@ -4222,7 +4401,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>0x39</v>
@@ -4231,7 +4410,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>0x3A</v>
@@ -4240,26 +4419,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0x3B</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="6">
         <v>59</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="6">
         <v>2</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>0x3C</v>
@@ -4268,7 +4449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>0x3D</v>
@@ -4277,7 +4458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>0x3E</v>
@@ -4307,34 +4488,34 @@
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="str">
+      <c r="A67" s="2" t="str">
         <f t="shared" ref="A67:A130" si="1">"0x"&amp;DEC2HEX(B67,2)</f>
         <v>0x41</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>65</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>2</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="D67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>91</v>
+      <c r="F67" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4349,34 +4530,34 @@
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="str">
+      <c r="A69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0x43</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>67</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>2</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>91</v>
+      <c r="F69" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4391,34 +4572,34 @@
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="str">
+      <c r="A71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0x45</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>69</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>2</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>91</v>
+      <c r="F71" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4433,34 +4614,34 @@
         <v>2</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="str">
+      <c r="A73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0x47</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>71</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>2</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>91</v>
+      <c r="F73" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,34 +4656,34 @@
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="str">
+      <c r="A75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0x49</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>73</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>2</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>91</v>
+      <c r="F75" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6146,4 +6327,293 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>